--- a/biology/Médecine/PKA_(Pension)/PKA_(Pension).xlsx
+++ b/biology/Médecine/PKA_(Pension)/PKA_(Pension).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La PKA ou Pensionsselskab est l'une des principales sociétés de retraite danoises avec des actifs de 350 milliards de DKK. PKA a son siège social à Tuborg Havn (en) dans la municipalité de Gentofte.
 PKA A/S offre une pension à toute personne du secteur social et de la santé. Elle gère des régimes de retraite professionnelle pour 335 000 membres dans quatre fonds de pension avec 13 groupes professionnels différents :
@@ -516,7 +528,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La PKA a été créée en 1954 avec la Caisse de pension des kinésithérapeutes.
 </t>
@@ -547,7 +561,9 @@
           <t>Directeur (-trice) s</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1954-1974 : Poul Andersen-Rosendal
 1974-1982 : Knud Kousgaard Nielsen
